--- a/账单.xlsx
+++ b/账单.xlsx
@@ -18,7 +18,6 @@
     <sheet name="4期" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
   <si>
     <t>日期</t>
   </si>
@@ -416,13 +415,22 @@
     <t>嘉利创打板</t>
   </si>
   <si>
-    <t>电阻紧密运放</t>
-  </si>
-  <si>
     <t>洞洞板,电阻,晶振</t>
   </si>
   <si>
     <t>节点打样，贴片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻精密运放</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点打样，贴片-Nbiot</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -756,35 +764,6 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -874,6 +853,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3173,6 +3181,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500477</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>621752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2B2D42-3E34-4BBD-8C32-87CDED195013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6299200" y="8992298"/>
+          <a:ext cx="3827877" cy="1789454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>331901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214171</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>199819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E2585A-67AD-4A97-AEAC-FD136A14517A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6292850" y="7951901"/>
+          <a:ext cx="4221021" cy="502918"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>221113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>150421</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>628795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F705A54B-464F-49A0-AE90-E8970FA5E299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="8476113"/>
+          <a:ext cx="4106471" cy="407682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3481,948 +3621,948 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="9"/>
-    <col min="2" max="2" width="23.58203125" style="10"/>
-    <col min="3" max="5" width="9.25" style="11"/>
-    <col min="6" max="6" width="18.83203125" style="11"/>
-    <col min="7" max="7" width="9.25" style="11"/>
-    <col min="8" max="8" width="9.83203125" style="11"/>
-    <col min="9" max="9" width="23.75" style="12"/>
+    <col min="1" max="1" width="12.83203125" style="1"/>
+    <col min="2" max="2" width="23.58203125" style="2"/>
+    <col min="3" max="5" width="9.25" style="3"/>
+    <col min="6" max="6" width="18.83203125" style="3"/>
+    <col min="7" max="7" width="9.25" style="3"/>
+    <col min="8" max="8" width="9.83203125" style="3"/>
+    <col min="9" max="9" width="23.75" style="4"/>
     <col min="10" max="1025" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="10">
         <v>43046</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13">
         <v>1650</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
         <v>1650</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
+      <c r="A3" s="30">
         <v>43047</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>15</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="12">
         <f>D3*C3</f>
         <v>30</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6">
+      <c r="F3" s="31"/>
+      <c r="G3" s="32">
         <v>32</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="33">
         <f>H2-G3</f>
         <v>1618</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="12">
         <f>C4*D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+      <c r="A5" s="10">
         <v>43053</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="12">
         <v>235</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="12">
         <v>241</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="13">
         <v>241</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="13">
         <f>H3-G5</f>
         <v>1377</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="10">
         <v>43053</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="12">
         <v>5</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>108</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="13">
         <v>189</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="13">
         <f>H5-G6</f>
         <v>1188</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+      <c r="A7" s="10">
         <v>43053</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="12">
         <v>5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>12</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="12">
         <f>D7*C7</f>
         <v>60</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="13">
         <v>68</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="13">
         <f>H6-G7</f>
         <v>1120</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8">
+      <c r="A8" s="30">
         <v>43053</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="12">
         <v>9</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="12">
         <v>1.21</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="12">
         <f>D8*C8</f>
         <v>10.89</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="35">
         <f>SUM(E8:E10)+6</f>
         <v>59.89</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="35">
         <f>H7-G8</f>
         <v>1060.1099999999999</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="12">
         <v>0.1</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="12">
         <v>80</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="12">
         <f>D9*C9</f>
         <v>8</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="22"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="12">
         <v>7</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="12">
         <v>5</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="12">
         <f>D10*C10</f>
         <v>35</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="A11" s="10">
         <v>43054</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>102</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21">
+      <c r="F11" s="34"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <f>H8-E11</f>
         <v>958.1099999999999</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8">
+      <c r="A12" s="30">
         <v>43054</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="12">
         <v>10</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="12">
         <v>1.92</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="17">
         <f t="shared" ref="E12:E31" si="0">D12*C12</f>
         <v>19.2</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21">
+      <c r="F12" s="34"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
         <f t="shared" ref="H12:H17" si="1">H11-E12</f>
         <v>938.90999999999985</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="12">
         <v>0.65</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21">
+      <c r="F13" s="34"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
         <v>932.40999999999985</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="12">
         <v>10</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21">
+      <c r="F14" s="34"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
         <v>921.40999999999985</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="12">
         <v>10</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="12">
         <v>0.76</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="F15" s="34"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
         <f t="shared" si="1"/>
         <v>913.80999999999983</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="18">
         <v>200</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="12">
         <v>0.03</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="F16" s="34"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>907.80999999999983</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="12">
         <v>200</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="12">
         <v>0.03</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="34"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
         <f t="shared" si="1"/>
         <v>901.80999999999983</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18" s="36">
         <v>43056</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="12">
         <v>5</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="12">
         <v>0.2</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="35">
         <f>SUM(E18:E22)+7</f>
         <v>73.5</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="35">
         <f>H17-G18</f>
         <v>828.30999999999983</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="12">
         <v>10</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="12">
         <v>5</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="22"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="12">
         <v>5</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="12">
         <v>0.1</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="17">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="22"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="12">
         <v>10</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="12">
         <v>1</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="22"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="12">
         <v>10</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="12">
         <v>0.5</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="22"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27">
+      <c r="A23" s="19">
         <v>43056</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="12">
         <v>10</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="12">
         <v>1.28</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <v>16.8</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="13">
         <f>H18-G23</f>
         <v>811.50999999999988</v>
       </c>
-      <c r="I23" s="22"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
+      <c r="A24" s="36">
         <v>43056</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="12">
         <v>1</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="12">
         <v>0.7</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="35">
         <v>26.5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="35">
         <f>H23-G24</f>
         <v>785.00999999999988</v>
       </c>
-      <c r="I24" s="22"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="12">
         <v>2</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="12">
         <v>0.9</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="22"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="12">
         <v>1.4</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="17">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="22"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="12">
         <v>10</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="12">
         <v>0.8</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="22"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="12">
         <v>1</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="12">
         <v>1.4</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="17">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="22"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="12">
         <v>2</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="12">
         <v>0.7</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="17">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="22"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="12">
         <v>1</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="12">
         <v>0.8</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="17">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="22"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18">
+      <c r="A31" s="10">
         <v>43060</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="18">
         <v>1</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="12">
         <v>49</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13">
         <f>H24-E31</f>
         <v>736.00999999999988</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="18">
+      <c r="A32" s="10">
         <v>43060</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="25">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="17">
         <f>63.5+21.5+48.5+1+1+2+3</f>
         <v>140.5</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13">
         <f>H31-E32</f>
         <v>595.50999999999988</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18">
+      <c r="A33" s="10">
         <v>43062</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="12">
         <v>1</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="12">
         <v>12</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="17">
         <f>D33*C33</f>
         <v>12</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
         <v>16</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="13">
         <f>H32-E33</f>
         <v>583.50999999999988</v>
       </c>
-      <c r="I33" s="22"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="8">
+      <c r="A34" s="30">
         <v>43067</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="3">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="35">
         <v>40.619999999999997</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="35">
         <f>H33-G34</f>
         <v>542.88999999999987</v>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="8"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="22"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="8"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="22"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="8"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="22"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="22"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="18">
+      <c r="A39" s="10">
         <v>43068</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="21" t="str">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="13" t="str">
         <f>IF(E39="","",IF(OR(#REF!="银行收入",#REF!="银行支出",#REF!="存入银行",#REF!="银行提现"),F38+E39,F38))</f>
         <v/>
       </c>
-      <c r="G39" s="21">
+      <c r="G39" s="13">
         <v>254</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="13">
         <f>H34-G39</f>
         <v>288.88999999999987</v>
       </c>
-      <c r="I39" s="22"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="18">
+      <c r="A40" s="10">
         <v>43074</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="21" t="str">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="13" t="str">
         <f>IF(E40="","",IF(OR(#REF!="银行收入",#REF!="银行支出",#REF!="存入银行",#REF!="银行提现"),F39+E40,F39))</f>
         <v/>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="13">
         <v>203</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="13">
         <f>H39-G40</f>
         <v>85.889999999999873</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="21" t="str">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="13" t="str">
         <f>IF(E41="","",IF(OR(#REF!="银行收入",#REF!="银行支出",#REF!="存入银行",#REF!="银行提现"),F40+E41,F40))</f>
         <v/>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21" t="str">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13" t="str">
         <f>IF(E41="","",IF(OR(#REF!="现金收入",#REF!="现金支出"),H40+E41,IF(OR(#REF!="存入银行",#REF!="银行提现"),H40-E41,H40)))</f>
         <v/>
       </c>
-      <c r="I41" s="22"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="18">
+      <c r="A42" s="10">
         <v>43074</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11">
         <v>16.739999999999998</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="11">
         <f>H40-G42</f>
         <v>69.149999999999878</v>
       </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="18">
+      <c r="A43" s="10">
         <v>43074</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="11">
         <f>57.5+4+73.5</f>
         <v>135</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="3">
         <f>H42-G43</f>
         <v>-65.850000000000122</v>
       </c>
@@ -4494,1488 +4634,1488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="10">
         <v>43076</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12">
         <v>2000</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21">
+      <c r="F2" s="16"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
         <f>-65.85+E2</f>
         <v>1934.15</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="A3" s="10">
         <v>43076</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="12">
         <v>3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>1.43</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="12">
         <f>D3*C3</f>
         <v>4.29</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="21">
+      <c r="F3" s="16"/>
+      <c r="G3" s="13">
         <v>10.3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H13" si="0">H2-G3</f>
         <v>1923.8500000000001</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
+      <c r="A4" s="10">
         <v>43077</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>7.53</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="12">
         <f>D4*C4</f>
         <v>22.59</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21">
+      <c r="F4" s="16"/>
+      <c r="G4" s="13">
         <v>26.6</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>1897.2500000000002</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+      <c r="A5" s="10">
         <v>43080</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="12">
         <v>20</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="12">
         <v>20.5</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="12">
         <f>D5*C5</f>
         <v>410</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21">
+      <c r="F5" s="16"/>
+      <c r="G5" s="13">
         <v>410</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>1487.2500000000002</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="10">
         <v>43082</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13">
         <v>16.84</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>1470.4100000000003</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+      <c r="A7" s="10">
         <v>43083</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13">
         <v>29.86</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>1440.5500000000004</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
+      <c r="A8" s="10">
         <v>43087</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13">
         <v>86.5</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>1354.0500000000004</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+      <c r="A9" s="10">
         <v>43090</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="21">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13">
         <v>162</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>1192.0500000000004</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+      <c r="A10" s="10">
         <v>43090</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13">
         <v>9.6</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>1182.4500000000005</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="A11" s="10">
         <v>43090</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="21">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13">
         <v>12.46</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>1169.9900000000005</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
+      <c r="A12" s="10">
         <v>43095</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13">
         <v>443</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
         <v>726.99000000000046</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="18">
+      <c r="A13" s="10">
         <v>43099</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="6">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="32">
         <v>77.099999999999994</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="33">
         <f t="shared" si="0"/>
         <v>649.89000000000044</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="23"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="22"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="22"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="18">
+      <c r="A17" s="10">
         <v>43103</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="30">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22">
         <v>54</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="23">
         <f>H13-G17</f>
         <v>595.89000000000044</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <v>43109</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13">
         <v>32</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="13">
         <f>H17-G18</f>
         <v>563.89000000000044</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18">
+      <c r="A19" s="10">
         <v>43110</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="21">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13">
         <v>83</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="13">
         <f>H18-G19</f>
         <v>480.89000000000044</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="L19" s="33"/>
+      <c r="I19" s="14"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="13">
         <v>26</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="13">
         <f>H19-G20</f>
         <v>454.89000000000044</v>
       </c>
-      <c r="I20" s="22"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18">
+      <c r="A21" s="10">
         <v>43112</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="21">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13">
         <f>11+196</f>
         <v>207</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="13">
         <f>H20-G21</f>
         <v>247.89000000000044</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18">
+      <c r="A22" s="10">
         <v>43115</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13">
         <f>116+49</f>
         <v>165</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="13">
         <f>H21-G22</f>
         <v>82.890000000000441</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="23"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="23"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="22"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="23"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="22"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="23"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="22"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="22"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="23"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="22"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="23"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="23"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="15"/>
     </row>
     <row r="64" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="22"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="22"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="23"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="22"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="22"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="23"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="22"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="22"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="23"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="22"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="22"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="23"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="22"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="22"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="23"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="22"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="22"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="23"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="22"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="22"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="23"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="22"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="22"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="23"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="22"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="22"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="23"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="22"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="22"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="23"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="22"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="22"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="23"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="22"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="22"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="23"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="22"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="22"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="23"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="22"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="22"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="23"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="22"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="22"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="23"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="22"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="22"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="22"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="22"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="23"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="15"/>
     </row>
     <row r="115" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="22"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="22"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6025,1403 +6165,1403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="10">
         <v>43119</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="13">
         <v>2000</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="13">
         <f>2000+'2期'!H22</f>
         <v>2082.8900000000003</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
+      <c r="A3" s="30">
         <v>43119</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="12">
         <v>2.9</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="12">
         <f>C3*D3</f>
         <v>2.9</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="6">
+      <c r="F3" s="16"/>
+      <c r="G3" s="32">
         <v>75.900000000000006</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="35">
         <f>H2-G3</f>
         <v>2006.9900000000002</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="12">
         <v>20</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>3.5</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="12">
         <f>D4*C4</f>
         <v>70</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="22"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+      <c r="A5" s="10">
         <v>43119</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13">
         <f>116+49</f>
         <v>165</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="13">
         <f>H3-G5</f>
         <v>1841.9900000000002</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="10">
         <v>43119</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="13">
         <v>34.4</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="13">
         <f t="shared" ref="H6:H11" si="0">H5-G6</f>
         <v>1807.5900000000001</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+      <c r="A7" s="10">
         <v>43124</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="13">
         <v>49</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>1758.5900000000001</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
+      <c r="A8" s="10">
         <v>43125</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21">
+      <c r="E8" s="12"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="13">
         <f>890+560+40+90+22</f>
         <v>1602</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>156.59000000000015</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+      <c r="A9" s="10">
         <v>43164</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="21">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="13">
         <f>53+51</f>
         <v>104</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>52.590000000000146</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+      <c r="A10" s="10">
         <v>43166</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="13">
         <v>57</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>-4.4099999999998545</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="A11" s="10">
         <v>43168</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="21">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="13">
         <v>54</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="13">
         <f t="shared" si="0"/>
         <v>-58.409999999999854</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="22"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="22"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="22"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="L19" s="33"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="15"/>
     </row>
     <row r="34" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="15"/>
     </row>
     <row r="40" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="23"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="23"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="22"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="23"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="23"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="15"/>
     </row>
     <row r="52" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="22"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="23"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="22"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="22"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="23"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="15"/>
     </row>
     <row r="58" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="22"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="23"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="15"/>
     </row>
     <row r="61" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="23"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="15"/>
     </row>
     <row r="64" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="22"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="22"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="23"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="22"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="22"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="23"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="15"/>
     </row>
     <row r="70" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="22"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="22"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="23"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="22"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="22"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="23"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="15"/>
     </row>
     <row r="76" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="22"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="22"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="23"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="15"/>
     </row>
     <row r="79" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="22"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="22"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="23"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="22"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="22"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="23"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="22"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="22"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="23"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="22"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="22"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="23"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="22"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="22"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="23"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="15"/>
     </row>
     <row r="94" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="22"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="22"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="23"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="15"/>
     </row>
     <row r="97" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
-      <c r="I97" s="22"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="22"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
-      <c r="I99" s="23"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="15"/>
     </row>
     <row r="100" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
-      <c r="I100" s="22"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="22"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="23"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="15"/>
     </row>
     <row r="103" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="22"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-      <c r="I104" s="22"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="23"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="22"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="22"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="23"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="15"/>
     </row>
     <row r="109" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="22"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="22"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="23"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="15"/>
     </row>
     <row r="112" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="22"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="22"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="23"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="15"/>
     </row>
     <row r="115" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="22"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="22"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7462,10 +7602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7478,358 +7618,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18">
+      <c r="A2" s="10">
         <v>43356</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="28">
         <f>32.5+3.36</f>
         <v>35.86</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="28">
         <f>'3期'!H11-D2</f>
         <v>-94.269999999999854</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="18">
+      <c r="A3" s="10">
         <v>43361</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="21">
+      <c r="B3" s="11"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="13">
         <v>2000</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="13">
         <f>D3+E2</f>
         <v>1905.7300000000002</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
+      <c r="A4" s="10">
         <v>43362</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="13">
         <v>31.3</v>
       </c>
-      <c r="E4" s="21">
-        <f t="shared" ref="E4:E12" si="0">E3-D4</f>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E15" si="0">E3-D4</f>
         <v>1874.4300000000003</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="18">
+      <c r="A5" s="10">
         <v>43362</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="12">
         <v>51</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>1823.4300000000003</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="18">
+      <c r="A6" s="10">
         <v>43363</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="13">
         <v>49.96</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>1773.4700000000003</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18">
+      <c r="A7" s="10">
         <v>43364</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="21">
+      <c r="C7" s="16"/>
+      <c r="D7" s="13">
         <f>45.13+1.68</f>
         <v>46.81</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>1726.6600000000003</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18">
+      <c r="A8" s="10">
         <v>43367</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="13">
         <v>50</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>1676.6600000000003</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="18">
+      <c r="A9" s="10">
         <v>43368</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="B9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="13">
         <v>34.92</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>1641.7400000000002</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="18">
+      <c r="A10" s="10">
         <v>43372</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="B10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="13">
         <f>12.7+17.24</f>
         <v>29.939999999999998</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>1611.8000000000002</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="A11" s="10">
         <v>43404</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21">
+      <c r="B11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="13">
         <v>33.86</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>1577.9400000000003</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="18">
+      <c r="A12" s="10">
         <v>43404</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21">
+      <c r="B12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="13">
         <f>50+93</f>
         <v>143</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>1434.9400000000003</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="10">
+        <v>43413</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="13">
+        <f>50+93+14</f>
+        <v>157</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>1277.9400000000003</v>
+      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="10">
+        <v>43451</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="13">
+        <f>87+32</f>
+        <v>119</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>1158.9400000000003</v>
+      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="10">
+        <v>43451</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="22">
+        <v>100.8</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>1058.1400000000003</v>
+      </c>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="23"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="G6:O6"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="按标准格式数据日期" prompt="日期格式：2015/1/1" sqref="A2:A25" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="手动录入摘要" prompt="手动录入账目摘要" sqref="D5" xr:uid="{00000000-0002-0000-0300-000002000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B21" xr:uid="{00000000-0002-0000-0300-000003000000}">
+      <formula1>Project</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="按标准格式数据日期" prompt="日期格式：2015/1/1" sqref="A2:A21" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>42005</formula1>
       <formula2>44196</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="手动输入备注" prompt="手动输入备忘事项，便于日后追查。" sqref="F3:F25" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="手动输入备注" prompt="手动输入备忘事项，便于日后追查。" sqref="F3:F21" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="手动录入摘要" prompt="手动录入账目摘要" sqref="D5 B16" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15 B17:B25" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>Project</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/账单.xlsx
+++ b/账单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>日期</t>
   </si>
@@ -435,6 +435,14 @@
   </si>
   <si>
     <t>元器件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB模块打样</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFM最小系统打板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -858,6 +866,14 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,14 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3184,15 +3192,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>50801</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>102298</xdr:rowOff>
+      <xdr:rowOff>13398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>500477</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>621752</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3215,8 +3223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6299200" y="8992298"/>
-          <a:ext cx="3827877" cy="1789454"/>
+          <a:off x="6311901" y="8903398"/>
+          <a:ext cx="1422400" cy="664943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3305,6 +3313,94 @@
         <a:xfrm>
           <a:off x="6343650" y="8476113"/>
           <a:ext cx="4106471" cy="407682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>304599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778CD590-4EDB-418C-A823-C88A617CE720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="9670037"/>
+          <a:ext cx="6853100" cy="794562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>265834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>153717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D90DA3-5F67-4A4E-BB76-95C34757E7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="10425834"/>
+          <a:ext cx="8897667" cy="689697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3694,11 +3790,11 @@
         <f>D3*C3</f>
         <v>30</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34">
         <v>32</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="35">
         <f>H2-G3</f>
         <v>1618</v>
       </c>
@@ -3719,9 +3815,9 @@
         <f>C4*D4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3824,14 +3920,14 @@
         <f>D8*C8</f>
         <v>10.89</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="31">
         <f>SUM(E8:E10)+6</f>
         <v>59.89</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="31">
         <f>H7-G8</f>
         <v>1060.1099999999999</v>
       </c>
@@ -3852,9 +3948,9 @@
         <f>D9*C9</f>
         <v>8</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3872,9 +3968,9 @@
         <f>D10*C10</f>
         <v>35</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3889,7 +3985,7 @@
       <c r="E11" s="12">
         <v>102</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
         <f>H8-E11</f>
@@ -3914,7 +4010,7 @@
         <f t="shared" ref="E12:E31" si="0">D12*C12</f>
         <v>19.2</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13">
         <f t="shared" ref="H12:H17" si="1">H11-E12</f>
@@ -3937,7 +4033,7 @@
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
@@ -3960,7 +4056,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
         <f t="shared" si="1"/>
@@ -3983,7 +4079,7 @@
         <f t="shared" si="0"/>
         <v>7.6</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
@@ -4006,7 +4102,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13">
         <f t="shared" si="1"/>
@@ -4029,7 +4125,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
@@ -4038,7 +4134,7 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="36">
+      <c r="A18" s="32">
         <v>43056</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -4054,21 +4150,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="31">
         <f>SUM(E18:E22)+7</f>
         <v>73.5</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="31">
         <f>H17-G18</f>
         <v>828.30999999999983</v>
       </c>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
@@ -4082,13 +4178,13 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="36"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
@@ -4102,13 +4198,13 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="36"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
@@ -4122,13 +4218,13 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="36"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
@@ -4142,9 +4238,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4175,7 +4271,7 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="36">
+      <c r="A24" s="32">
         <v>43056</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -4191,20 +4287,20 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="31">
         <v>26.5</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="31">
         <f>H23-G24</f>
         <v>785.00999999999988</v>
       </c>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="11" t="s">
         <v>37</v>
       </c>
@@ -4218,13 +4314,13 @@
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="36"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="11" t="s">
         <v>38</v>
       </c>
@@ -4238,13 +4334,13 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
@@ -4258,13 +4354,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="36"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="11" t="s">
         <v>40</v>
       </c>
@@ -4278,13 +4374,13 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
@@ -4298,13 +4394,13 @@
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="36"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="11" t="s">
         <v>42</v>
       </c>
@@ -4318,9 +4414,9 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4407,10 +4503,10 @@
       <c r="D34" s="12"/>
       <c r="E34" s="17"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="35">
+      <c r="G34" s="31">
         <v>40.619999999999997</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="31">
         <f>H33-G34</f>
         <v>542.88999999999987</v>
       </c>
@@ -4425,8 +4521,8 @@
       <c r="D35" s="12"/>
       <c r="E35" s="17"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4438,8 +4534,8 @@
       <c r="D36" s="12"/>
       <c r="E36" s="17"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4451,8 +4547,8 @@
       <c r="D37" s="12"/>
       <c r="E37" s="17"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4464,8 +4560,8 @@
       <c r="D38" s="12"/>
       <c r="E38" s="17"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4569,6 +4665,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="F8:F17"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A34:A38"/>
     <mergeCell ref="G34:G38"/>
     <mergeCell ref="H34:H38"/>
@@ -4580,15 +4685,6 @@
     <mergeCell ref="F24:F30"/>
     <mergeCell ref="G24:G30"/>
     <mergeCell ref="H24:H30"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="F8:F17"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="5">
@@ -4914,10 +5010,10 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="32">
+      <c r="G13" s="34">
         <v>77.099999999999994</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="35">
         <f t="shared" si="0"/>
         <v>649.89000000000044</v>
       </c>
@@ -4932,8 +5028,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4945,8 +5041,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4958,8 +5054,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6231,10 +6327,10 @@
         <v>2.9</v>
       </c>
       <c r="F3" s="16"/>
-      <c r="G3" s="32">
+      <c r="G3" s="34">
         <v>75.900000000000006</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="31">
         <f>H2-G3</f>
         <v>2006.9900000000002</v>
       </c>
@@ -6256,8 +6352,8 @@
         <v>70</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6425,8 +6521,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6436,8 +6532,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6447,8 +6543,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -6458,8 +6554,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7605,7 +7701,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7688,7 +7784,7 @@
         <v>31.3</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E15" si="0">E3-D4</f>
+        <f t="shared" ref="E4:E17" si="0">E3-D4</f>
         <v>1874.4300000000003</v>
       </c>
       <c r="F4" s="20"/>
@@ -7898,19 +7994,38 @@
       <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="10">
+        <v>43460</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="13">
+        <v>105</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>953.14000000000033</v>
+      </c>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="10">
+        <v>43461</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="C17" s="16"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="13">
+        <f>32+86</f>
+        <v>118</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>835.14000000000033</v>
+      </c>
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">

--- a/账单.xlsx
+++ b/账单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>日期</t>
   </si>
@@ -443,6 +443,14 @@
   </si>
   <si>
     <t>EFM最小系统打板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB-v2节点打样</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2672,16 +2680,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>703410</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>569030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>378000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2873550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>615110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2700,8 +2708,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8647200" y="2014200"/>
-          <a:ext cx="2208240" cy="682200"/>
+          <a:off x="6291410" y="1839030"/>
+          <a:ext cx="2170140" cy="681080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,16 +2723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>759410</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>631690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2679450</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>15410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2743,8 +2751,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8449200" y="2573280"/>
-          <a:ext cx="1945440" cy="655200"/>
+          <a:off x="6347410" y="2536690"/>
+          <a:ext cx="1920040" cy="653720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2758,16 +2766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>619200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>710630</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1317850</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>114090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2786,8 +2794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457320" y="3164040"/>
-          <a:ext cx="619920" cy="748440"/>
+          <a:off x="6298630" y="3178250"/>
+          <a:ext cx="607220" cy="745840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2801,16 +2809,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1378070</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>45490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>646560</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2164210</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>11650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2829,8 +2837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896160" y="3233160"/>
-          <a:ext cx="798840" cy="602280"/>
+          <a:off x="6966070" y="3220490"/>
+          <a:ext cx="786140" cy="601160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2844,16 +2852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>617760</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>892130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>128810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3081350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>183490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2872,8 +2880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448320" y="3799080"/>
-          <a:ext cx="2227320" cy="691920"/>
+          <a:off x="6480130" y="3938810"/>
+          <a:ext cx="2189220" cy="689680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2887,16 +2895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217870</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>16520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484020</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>559800</xdr:rowOff>
+      <xdr:rowOff>509000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2915,8 +2923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6548760" y="4520880"/>
-          <a:ext cx="8870400" cy="492480"/>
+          <a:off x="5805870" y="4461520"/>
+          <a:ext cx="8705300" cy="492480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,14 +2938,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>741860</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>562680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>229320</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1575520</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>626400</xdr:rowOff>
     </xdr:to>
@@ -2973,14 +2981,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>751220</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>625320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520560</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158610</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
@@ -3016,16 +3024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1824780</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>557640</xdr:rowOff>
+      <xdr:rowOff>614790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>558720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>606960</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>260270</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3044,8 +3052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10206720" y="5011200"/>
-          <a:ext cx="2886840" cy="1321920"/>
+          <a:off x="7412780" y="5059790"/>
+          <a:ext cx="2836040" cy="1319320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3059,16 +3067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16876</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>628649</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>728076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>569415</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>245565</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>387210</xdr:rowOff>
+      <xdr:rowOff>431660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3091,7 +3099,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6277976" y="6978649"/>
+          <a:off x="6316076" y="7023099"/>
           <a:ext cx="5937339" cy="393561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3109,8 +3117,8 @@
       <xdr:rowOff>355600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579016</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217066</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>130038</xdr:rowOff>
     </xdr:to>
@@ -3147,16 +3155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>433344</xdr:rowOff>
+      <xdr:rowOff>465094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>46426</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2853126</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>82011</xdr:rowOff>
+      <xdr:rowOff>113761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3179,7 +3187,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6280150" y="6148344"/>
+          <a:off x="6394450" y="6180094"/>
           <a:ext cx="2046676" cy="918667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3191,14 +3199,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1301751</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>13398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>127001</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2724151</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>43341</xdr:rowOff>
     </xdr:to>
@@ -3223,7 +3231,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6311901" y="8903398"/>
+          <a:off x="6889751" y="8903398"/>
           <a:ext cx="1422400" cy="664943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3235,16 +3243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>331901</xdr:rowOff>
+      <xdr:rowOff>122351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>214171</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>199819</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>430071</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>625269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3267,7 +3275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6292850" y="7951901"/>
+          <a:off x="6197600" y="7742351"/>
           <a:ext cx="4221021" cy="502918"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3279,16 +3287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>221113</xdr:rowOff>
+      <xdr:rowOff>119513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>150421</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>302821</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>628795</xdr:rowOff>
+      <xdr:rowOff>527195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3311,7 +3319,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343650" y="8476113"/>
+          <a:off x="6184900" y="8374513"/>
           <a:ext cx="4106471" cy="407682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3323,16 +3331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>145037</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>633987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>128450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534850</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>304599</xdr:rowOff>
+      <xdr:rowOff>158549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3355,7 +3363,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="9670037"/>
+          <a:off x="5689600" y="9523987"/>
           <a:ext cx="6853100" cy="794562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3367,16 +3375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>265834</xdr:rowOff>
+      <xdr:rowOff>30884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>153717</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77517</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>320531</xdr:rowOff>
+      <xdr:rowOff>85581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3399,8 +3407,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6267450" y="10425834"/>
+          <a:off x="5880100" y="10190884"/>
           <a:ext cx="8897667" cy="689697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>606749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA28981-75BD-4C5A-951F-798E2314D3C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="11401749"/>
+          <a:ext cx="1454150" cy="682300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>710522</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2348277</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>218505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305C54EB-809E-45B1-B327-601F95D9FF33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6298522" y="10883900"/>
+          <a:ext cx="1637755" cy="764605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>601937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449645</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E36B368-01D4-464F-B8BD-A0A0EB8F0AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9378950" y="11396937"/>
+          <a:ext cx="3078545" cy="702712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>261674</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>323713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7F518E-14F8-453F-AA56-41D7ABD4486A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5645150" y="12100453"/>
+          <a:ext cx="3931974" cy="288260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>340637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2547813</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>526909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E74185-0B1F-4C53-B6A2-126E99FCE73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="12405637"/>
+          <a:ext cx="2268413" cy="186272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7700,8 +7928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7710,7 +7938,8 @@
     <col min="2" max="2" width="17.83203125"/>
     <col min="3" max="3" width="24.25"/>
     <col min="4" max="5" width="9.83203125"/>
-    <col min="6" max="1025" width="8.83203125"/>
+    <col min="6" max="6" width="48.9140625" customWidth="1"/>
+    <col min="7" max="1025" width="8.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7784,7 +8013,7 @@
         <v>31.3</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E17" si="0">E3-D4</f>
+        <f t="shared" ref="E4:E20" si="0">E3-D4</f>
         <v>1874.4300000000003</v>
       </c>
       <c r="F4" s="20"/>
@@ -8029,27 +8258,56 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="10">
+        <v>43463</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C18" s="16"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="13">
+        <v>40.18</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>794.96000000000038</v>
+      </c>
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="10">
+        <v>43468</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C19" s="16"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="13">
+        <f>91.8+39.3</f>
+        <v>131.1</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>663.86000000000035</v>
+      </c>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="10">
+        <v>43470</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="13">
+        <f>88+46</f>
+        <v>134</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>529.86000000000035</v>
+      </c>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="50.15" customHeight="1" x14ac:dyDescent="0.45">
